--- a/修論/本文/figure/fig_3_2_10QW_ridge_GS_convo.xlsx
+++ b/修論/本文/figure/fig_3_2_10QW_ridge_GS_convo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N\Documents\yakisaba\修論\本文\figure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4F7C3E-E3A2-4660-8D6C-F0E87AF0B50B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5E9588-00CD-49B9-9B35-74769C5A595D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="18270" windowHeight="7980" xr2:uid="{40FD3CC7-F263-4D44-B85A-EA44070D3688}"/>
+    <workbookView xWindow="1965" yWindow="0" windowWidth="18270" windowHeight="7980" xr2:uid="{40FD3CC7-F263-4D44-B85A-EA44070D3688}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <f>B13*17.994+0.6553</f>
+        <f t="shared" ref="C13:C23" si="0">B13*17.994+0.6553</f>
         <v>18.6493</v>
       </c>
       <c r="D13">
@@ -632,11 +632,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C14">
-        <f>B14*17.994+0.6553</f>
+        <f t="shared" si="0"/>
         <v>20.448700000000002</v>
       </c>
       <c r="D14">
-        <f t="shared" ref="D14:D23" si="0">ROUND(C14,1)</f>
+        <f t="shared" ref="D14:D23" si="1">ROUND(C14,1)</f>
         <v>20.399999999999999</v>
       </c>
     </row>
@@ -645,11 +645,11 @@
         <v>1.2</v>
       </c>
       <c r="C15">
-        <f>B15*17.994+0.6553</f>
+        <f t="shared" si="0"/>
         <v>22.248100000000001</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22.2</v>
       </c>
     </row>
@@ -658,11 +658,11 @@
         <v>1.3</v>
       </c>
       <c r="C16">
-        <f>B16*17.994+0.6553</f>
+        <f t="shared" si="0"/>
         <v>24.047499999999999</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="E16" t="s">
@@ -686,15 +686,15 @@
         <v>1.4</v>
       </c>
       <c r="C17">
-        <f>B17*17.994+0.6553</f>
+        <f t="shared" si="0"/>
         <v>25.846899999999998</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25.8</v>
       </c>
       <c r="E17">
-        <f>SQRT(G17^2-F17^2)</f>
+        <f t="shared" ref="E17:E23" si="2">SQRT(G17^2-F17^2)</f>
         <v>36.093212658337855</v>
       </c>
       <c r="F17">
@@ -704,14 +704,14 @@
         <v>37.4</v>
       </c>
       <c r="I17">
-        <f>G17/E17</f>
+        <f t="shared" ref="I17:I23" si="3">G17/E17</f>
         <v>1.0362059025898396</v>
       </c>
       <c r="J17">
         <v>51.5</v>
       </c>
       <c r="K17">
-        <f>J17/I17</f>
+        <f t="shared" ref="K17:K23" si="4">J17/I17</f>
         <v>49.700546842363622</v>
       </c>
     </row>
@@ -720,15 +720,15 @@
         <v>1.5</v>
       </c>
       <c r="C18">
-        <f>B18*17.994+0.6553</f>
+        <f t="shared" si="0"/>
         <v>27.6463</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27.6</v>
       </c>
       <c r="E18">
-        <f>SQRT(G18^2-F18^2)</f>
+        <f t="shared" si="2"/>
         <v>25.587496946751159</v>
       </c>
       <c r="F18">
@@ -738,14 +738,14 @@
         <v>27.4</v>
       </c>
       <c r="I18">
-        <f>G18/E18</f>
+        <f t="shared" si="3"/>
         <v>1.0708354966107372</v>
       </c>
       <c r="J18">
         <v>43.7</v>
       </c>
       <c r="K18">
-        <f>J18/I18</f>
+        <f t="shared" si="4"/>
         <v>40.809256079307509</v>
       </c>
     </row>
@@ -754,15 +754,15 @@
         <v>1.6</v>
       </c>
       <c r="C19">
-        <f>B19*17.994+0.6553</f>
+        <f t="shared" si="0"/>
         <v>29.445700000000002</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29.4</v>
       </c>
       <c r="E19">
-        <f>SQRT(G19^2-F19^2)</f>
+        <f t="shared" si="2"/>
         <v>20.807690885823924</v>
       </c>
       <c r="F19">
@@ -772,14 +772,14 @@
         <v>23</v>
       </c>
       <c r="I19">
-        <f>G19/E19</f>
+        <f t="shared" si="3"/>
         <v>1.1053605191563891</v>
       </c>
       <c r="J19">
         <v>35.4</v>
       </c>
       <c r="K19">
-        <f>J19/I19</f>
+        <f t="shared" si="4"/>
         <v>32.025750319920299</v>
       </c>
     </row>
@@ -788,15 +788,15 @@
         <v>1.7</v>
       </c>
       <c r="C20">
-        <f>B20*17.994+0.6553</f>
+        <f t="shared" si="0"/>
         <v>31.245100000000001</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31.2</v>
       </c>
       <c r="E20">
-        <f>SQRT(G20^2-F20^2)</f>
+        <f t="shared" si="2"/>
         <v>18.119602644649802</v>
       </c>
       <c r="F20">
@@ -806,14 +806,14 @@
         <v>20.6</v>
       </c>
       <c r="I20">
-        <f>G20/E20</f>
+        <f t="shared" si="3"/>
         <v>1.1368902731474959</v>
       </c>
       <c r="J20">
         <v>32.6</v>
       </c>
       <c r="K20">
-        <f>J20/I20</f>
+        <f t="shared" si="4"/>
         <v>28.674710981339004</v>
       </c>
     </row>
@@ -822,15 +822,15 @@
         <v>1.8</v>
       </c>
       <c r="C21">
-        <f>B21*17.994+0.6553</f>
+        <f t="shared" si="0"/>
         <v>33.044499999999999</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="E21">
-        <f>SQRT(G21^2-F21^2)</f>
+        <f t="shared" si="2"/>
         <v>17.777795138880411</v>
       </c>
       <c r="F21">
@@ -840,14 +840,14 @@
         <v>20.3</v>
       </c>
       <c r="I21">
-        <f>G21/E21</f>
+        <f t="shared" si="3"/>
         <v>1.1418738848893288</v>
       </c>
       <c r="J21">
         <v>31.4</v>
       </c>
       <c r="K21">
-        <f>J21/I21</f>
+        <f t="shared" si="4"/>
         <v>27.498658490682015</v>
       </c>
     </row>
@@ -856,15 +856,15 @@
         <v>1.9</v>
       </c>
       <c r="C22">
-        <f>B22*17.994+0.6553</f>
+        <f t="shared" si="0"/>
         <v>34.843899999999998</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34.799999999999997</v>
       </c>
       <c r="E22">
-        <f>SQRT(G22^2-F22^2)</f>
+        <f t="shared" si="2"/>
         <v>18.119602644649802</v>
       </c>
       <c r="F22">
@@ -874,14 +874,14 @@
         <v>20.6</v>
       </c>
       <c r="I22">
-        <f>G22/E22</f>
+        <f t="shared" si="3"/>
         <v>1.1368902731474959</v>
       </c>
       <c r="J22">
         <v>32.799999999999997</v>
       </c>
       <c r="K22">
-        <f>J22/I22</f>
+        <f t="shared" si="4"/>
         <v>28.850629453617156</v>
       </c>
     </row>
@@ -890,15 +890,15 @@
         <v>2</v>
       </c>
       <c r="C23">
-        <f>B23*17.994+0.6553</f>
+        <f t="shared" si="0"/>
         <v>36.643299999999996</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36.6</v>
       </c>
       <c r="E23">
-        <f>SQRT(G23^2-F23^2)</f>
+        <f t="shared" si="2"/>
         <v>18.005832388423478</v>
       </c>
       <c r="F23">
@@ -908,14 +908,14 @@
         <v>20.5</v>
       </c>
       <c r="I23">
-        <f>G23/E23</f>
+        <f t="shared" si="3"/>
         <v>1.1385199838459066</v>
       </c>
       <c r="J23">
         <v>33</v>
       </c>
       <c r="K23">
-        <f>J23/I23</f>
+        <f t="shared" si="4"/>
         <v>28.984998478925601</v>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
         <v>1.8797000000000001E-2</v>
       </c>
       <c r="Q10">
-        <f t="shared" ref="Q10:Q15" si="1">O10*1000/J10</f>
+        <f t="shared" ref="Q10:Q14" si="1">O10*1000/J10</f>
         <v>1.1718700191091922</v>
       </c>
       <c r="R10">
@@ -2229,7 +2229,7 @@
         <v>31.3</v>
       </c>
       <c r="J11">
-        <f t="shared" ref="J11:J16" si="0">SQRT((O11*1000)^2-K11^2)</f>
+        <f t="shared" ref="J11:J15" si="0">SQRT((O11*1000)^2-K11^2)</f>
         <v>17.229964712674253</v>
       </c>
       <c r="K11">
@@ -2259,7 +2259,7 @@
         <v>3.2341399999999999E-2</v>
       </c>
       <c r="S11">
-        <f t="shared" ref="S11:S16" si="2">R11/Q11</f>
+        <f t="shared" ref="S11:S14" si="2">R11/Q11</f>
         <v>2.8112258135328579E-2</v>
       </c>
     </row>
